--- a/src/main/resources/excel/1 Vocabulary.xlsx
+++ b/src/main/resources/excel/1 Vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Adjectives" sheetId="1" state="visible" r:id="rId3"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="2382">
   <si>
     <t xml:space="preserve">abundant</t>
   </si>
@@ -3370,12 +3370,6 @@
     <t xml:space="preserve">ˈæpəl</t>
   </si>
   <si>
-    <t xml:space="preserve">Apricot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albaricoque</t>
-  </si>
-  <si>
     <t xml:space="preserve">Artichoke</t>
   </si>
   <si>
@@ -3418,15 +3412,6 @@
     <t xml:space="preserve">ˈbeɪɡəl</t>
   </si>
   <si>
-    <t xml:space="preserve">baguette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">junquillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˌbæˈɡɛt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Banana</t>
   </si>
   <si>
@@ -3520,33 +3505,6 @@
     <t xml:space="preserve">ˈbrɛkfəst</t>
   </si>
   <si>
-    <t xml:space="preserve">Breakfast burrito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burrito de desayuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈbrɛkfəst bəˈritoʊ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breakfast cereal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cereales para el desayuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈbrɛkfəst ˈsɪriəl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breakfast sandwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandwich de desayuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈbrɛkfəst ˈsændwɪʧ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Broccoli</t>
   </si>
   <si>
@@ -3565,15 +3523,6 @@
     <t xml:space="preserve">brɔθ</t>
   </si>
   <si>
-    <t xml:space="preserve">Brussels sprout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coles de bruselas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈbrʌsəlz spraʊt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cabbage</t>
   </si>
   <si>
@@ -3637,21 +3586,6 @@
     <t xml:space="preserve">ʧaɪvz</t>
   </si>
   <si>
-    <t xml:space="preserve">Chocolate milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leche con chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈʧɔklət mɪlk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilantro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sɪˈlæntroʊ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clove</t>
   </si>
   <si>
@@ -3676,15 +3610,6 @@
     <t xml:space="preserve">ˈkoʊkəˌnʌt</t>
   </si>
   <si>
-    <t xml:space="preserve">Coconut milk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leche de coco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈkoʊkəˌnʌt mɪlk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coffee</t>
   </si>
   <si>
@@ -3796,24 +3721,6 @@
     <t xml:space="preserve">fɪʃ</t>
   </si>
   <si>
-    <t xml:space="preserve">Fish and chips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pescado y papas fritas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fɪʃ ænd ʧɪps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">judías verdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frɛnʧ binz</t>
-  </si>
-  <si>
     <t xml:space="preserve">French bread</t>
   </si>
   <si>
@@ -3841,15 +3748,6 @@
     <t xml:space="preserve">fraɪd ˈʧɪkən</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruit juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zumo de frutas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frut ʤus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Garlic</t>
   </si>
   <si>
@@ -3895,12 +3793,6 @@
     <t xml:space="preserve">ɡrin ˈʧɪli</t>
   </si>
   <si>
-    <t xml:space="preserve">Green chilli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɡrin chilli</t>
-  </si>
-  <si>
     <t xml:space="preserve">green onions</t>
   </si>
   <si>
@@ -3964,24 +3856,6 @@
     <t xml:space="preserve">hɑt ˈʧɔklət</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hɑt dɔɡ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot dog bun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bollo de perro caliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hɑt dɔɡ bʌn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ice cream</t>
   </si>
   <si>
@@ -4000,12 +3874,6 @@
     <t xml:space="preserve">aɪst ti</t>
   </si>
   <si>
-    <t xml:space="preserve">Jackfruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juice</t>
   </si>
   <si>
@@ -4150,21 +4018,6 @@
     <t xml:space="preserve">ˈmʌfən</t>
   </si>
   <si>
-    <t xml:space="preserve">Mushroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈmʌʃrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nectarine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nectarina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Olive</t>
   </si>
   <si>
@@ -4201,15 +4054,6 @@
     <t xml:space="preserve">Orange</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zumo de naranja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈɔrənʤ ʤus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pancake</t>
   </si>
   <si>
@@ -4405,24 +4249,6 @@
     <t xml:space="preserve">ˈroʊzˌmɛri</t>
   </si>
   <si>
-    <t xml:space="preserve">rutabaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nabo sueco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈrutəbeɪɡə</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rye bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pan de centeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raɪ brɛd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Salad</t>
   </si>
   <si>
@@ -4516,15 +4342,6 @@
     <t xml:space="preserve">ˈstrɔˌbɛri</t>
   </si>
   <si>
-    <t xml:space="preserve">Swede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sueco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sweet potato</t>
   </si>
   <si>
@@ -4576,15 +4393,6 @@
     <t xml:space="preserve">təˈmeɪˌtoʊ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomato juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jugo de tomate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">təˈmeɪˌtoʊ ʤus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tossed salad</t>
   </si>
   <si>
@@ -4600,15 +4408,6 @@
     <t xml:space="preserve">Cúrcuma</t>
   </si>
   <si>
-    <t xml:space="preserve">Turnip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nabo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈtɜrnəp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Waffle</t>
   </si>
   <si>
@@ -4654,15 +4453,6 @@
     <t xml:space="preserve">waɪt brɛd</t>
   </si>
   <si>
-    <t xml:space="preserve">Whole grain bread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan de grano entero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoʊl ɡreɪn brɛd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wine</t>
   </si>
   <si>
@@ -4819,30 +4609,12 @@
     <t xml:space="preserve">juˈtɪləti rum</t>
   </si>
   <si>
-    <t xml:space="preserve">Pantry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈpæntri</t>
-  </si>
-  <si>
     <t xml:space="preserve">Patio</t>
   </si>
   <si>
     <t xml:space="preserve">ˈpætiˌoʊ</t>
   </si>
   <si>
-    <t xml:space="preserve">Porch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pɔrʧ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Study</t>
   </si>
   <si>
@@ -4855,15 +4627,6 @@
     <t xml:space="preserve">Cuarto De Servicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Veranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galería, Veranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vəˈrændə</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bowl</t>
   </si>
   <si>
@@ -4915,18 +4678,12 @@
     <t xml:space="preserve">ˈkɑfi pɑt</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooking</t>
+    <t xml:space="preserve">Kitchen Utensils</t>
   </si>
   <si>
     <t xml:space="preserve">Utensilios De Cocina</t>
   </si>
   <si>
-    <t xml:space="preserve">ˈkʊkɪŋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitchen Utensils</t>
-  </si>
-  <si>
     <t xml:space="preserve">ˈkɪʧən juˈtɛnsəlz</t>
   </si>
   <si>
@@ -5159,15 +4916,6 @@
   </si>
   <si>
     <t xml:space="preserve">træʃ kæn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saucepan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈsɔˌspæn</t>
   </si>
   <si>
     <t xml:space="preserve">Scissors</t>
@@ -7944,7 +7692,7 @@
   </sheetPr>
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A190" activeCellId="0" sqref="A190"/>
     </sheetView>
   </sheetViews>
@@ -10082,23 +9830,23 @@
   </sheetPr>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>2360</v>
+        <v>2276</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2361</v>
+        <v>2277</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>537</v>
@@ -10106,10 +9854,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>2362</v>
+        <v>2278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2363</v>
+        <v>2279</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>540</v>
@@ -10117,10 +9865,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>2364</v>
+        <v>2280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2365</v>
+        <v>2281</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>543</v>
@@ -10128,10 +9876,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>2366</v>
+        <v>2282</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2367</v>
+        <v>2283</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>546</v>
@@ -10139,10 +9887,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>2368</v>
+        <v>2284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2369</v>
+        <v>2285</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>549</v>
@@ -10150,10 +9898,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>2370</v>
+        <v>2286</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2371</v>
+        <v>2287</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>552</v>
@@ -10161,7 +9909,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>2372</v>
+        <v>2288</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>554</v>
@@ -10172,10 +9920,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>2373</v>
+        <v>2289</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2374</v>
+        <v>2290</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>558</v>
@@ -10183,10 +9931,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>2375</v>
+        <v>2291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2376</v>
+        <v>2292</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>561</v>
@@ -10194,10 +9942,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>2377</v>
+        <v>2293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2378</v>
+        <v>2294</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>564</v>
@@ -10205,10 +9953,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>2379</v>
+        <v>2295</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2380</v>
+        <v>2296</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>567</v>
@@ -10216,10 +9964,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>2381</v>
+        <v>2297</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2382</v>
+        <v>2298</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>570</v>
@@ -10227,10 +9975,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>2383</v>
+        <v>2299</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2384</v>
+        <v>2300</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>573</v>
@@ -10238,10 +9986,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>2385</v>
+        <v>2301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2386</v>
+        <v>2302</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>576</v>
@@ -10249,10 +9997,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>2387</v>
+        <v>2303</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2388</v>
+        <v>2304</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>579</v>
@@ -10260,10 +10008,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>2389</v>
+        <v>2305</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2390</v>
+        <v>2306</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>582</v>
@@ -10271,10 +10019,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>2391</v>
+        <v>2307</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2392</v>
+        <v>2308</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>585</v>
@@ -10282,10 +10030,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>2393</v>
+        <v>2309</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2394</v>
+        <v>2310</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>588</v>
@@ -10293,21 +10041,21 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>2395</v>
+        <v>2311</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2396</v>
+        <v>2312</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2395</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>2397</v>
+        <v>2313</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2398</v>
+        <v>2314</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>594</v>
@@ -10315,10 +10063,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>2399</v>
+        <v>2315</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2400</v>
+        <v>2316</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>612</v>
@@ -10326,21 +10074,21 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>2401</v>
+        <v>2317</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2402</v>
+        <v>2318</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2401</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>2403</v>
+        <v>2319</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2404</v>
+        <v>2320</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>630</v>
@@ -10348,10 +10096,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>2405</v>
+        <v>2321</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2406</v>
+        <v>2322</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>633</v>
@@ -10359,10 +10107,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>2407</v>
+        <v>2323</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2408</v>
+        <v>2324</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>636</v>
@@ -10370,10 +10118,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>2409</v>
+        <v>2325</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2410</v>
+        <v>2326</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>639</v>
@@ -10381,222 +10129,222 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>2411</v>
+        <v>2327</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2412</v>
+        <v>2328</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2411</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>2413</v>
+        <v>2329</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2414</v>
+        <v>2330</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2415</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>2416</v>
+        <v>2332</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2417</v>
+        <v>2333</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2418</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>2419</v>
+        <v>2335</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2420</v>
+        <v>2336</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2421</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>2422</v>
+        <v>2338</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2414</v>
+        <v>2330</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>2423</v>
+        <v>2339</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2424</v>
+        <v>2340</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2425</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>2426</v>
+        <v>2342</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2427</v>
+        <v>2343</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>2429</v>
+        <v>2345</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2430</v>
+        <v>2346</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2431</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>2432</v>
+        <v>2348</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2433</v>
+        <v>2349</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2434</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>2435</v>
+        <v>2351</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2436</v>
+        <v>2352</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2437</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>2438</v>
+        <v>2354</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2439</v>
+        <v>2355</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>2441</v>
+        <v>2357</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2442</v>
+        <v>2358</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>2444</v>
+        <v>2360</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2445</v>
+        <v>2361</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>2447</v>
+        <v>2363</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2448</v>
+        <v>2364</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>2450</v>
+        <v>2366</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2417</v>
+        <v>2333</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>2451</v>
+        <v>2367</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2452</v>
+        <v>2368</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>2454</v>
+        <v>2370</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2455</v>
+        <v>2371</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>2457</v>
+        <v>2373</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2458</v>
+        <v>2374</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2459</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>2460</v>
+        <v>2376</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2461</v>
+        <v>2377</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2462</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>2463</v>
+        <v>2379</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2464</v>
+        <v>2380</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2465</v>
+        <v>2381</v>
       </c>
     </row>
   </sheetData>
@@ -12923,10 +12671,10 @@
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K110" activeCellId="0" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12955,29 +12703,29 @@
         <v>1113</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>787</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1119</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12988,95 +12736,95 @@
         <v>1121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>790</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>1144</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13098,18 +12846,18 @@
         <v>1150</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13131,106 +12879,106 @@
         <v>1158</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>1184</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13296,12 +13044,12 @@
         <v>1202</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1204</v>
@@ -13318,26 +13066,26 @@
         <v>1207</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1212</v>
+        <v>1124</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>1213</v>
@@ -13367,1454 +13115,1025 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1233</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1126</v>
+        <v>1245</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1126</v>
+        <v>1248</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1267</v>
+        <v>1281</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1268</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1269</v>
+        <v>1283</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1288</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1290</v>
+        <v>1303</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1295</v>
+        <v>1308</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1307</v>
+        <v>1322</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1308</v>
+        <v>1323</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1309</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1307</v>
+        <v>1325</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1308</v>
+        <v>1326</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1309</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1310</v>
+        <v>1328</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1311</v>
+        <v>1329</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1312</v>
+        <v>729</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1320</v>
+        <v>1337</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1321</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1322</v>
+        <v>1339</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1323</v>
+        <v>665</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1322</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1324</v>
+        <v>1340</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1325</v>
+        <v>1341</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1326</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1328</v>
+        <v>1343</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1327</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1329</v>
+        <v>1345</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1330</v>
+        <v>1345</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1331</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1332</v>
+        <v>1347</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1334</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1336</v>
+        <v>736</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1337</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1335</v>
+        <v>1351</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1336</v>
+        <v>1352</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>1338</v>
+        <v>1354</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1339</v>
+        <v>1355</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1338</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>1340</v>
+        <v>1357</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1341</v>
+        <v>1358</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1342</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1344</v>
+        <v>1360</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1345</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1347</v>
+        <v>1363</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1348</v>
+        <v>793</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>1349</v>
+        <v>1364</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1351</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>1352</v>
+        <v>1367</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1352</v>
+        <v>1368</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1353</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>1354</v>
+        <v>1370</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1356</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>1357</v>
+        <v>1373</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1358</v>
+        <v>1374</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1359</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>1360</v>
+        <v>1376</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1361</v>
+        <v>1377</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1362</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1362</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>1363</v>
+        <v>1382</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1364</v>
+        <v>1383</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1365</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1367</v>
+        <v>1386</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1368</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1371</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1374</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1376</v>
+        <v>1386</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1375</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>729</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1384</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1382</v>
+        <v>1405</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1383</v>
+        <v>1406</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1384</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1385</v>
+        <v>1408</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1386</v>
+        <v>1409</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1387</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1388</v>
+        <v>1411</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>665</v>
+        <v>1412</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>666</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1389</v>
+        <v>1414</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1390</v>
+        <v>1415</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1391</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1389</v>
+        <v>1416</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1390</v>
+        <v>1417</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1391</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1392</v>
+        <v>1418</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1393</v>
+        <v>1419</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1394</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1395</v>
+        <v>1421</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1395</v>
+        <v>1422</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1396</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1397</v>
+        <v>1425</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1398</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1400</v>
+        <v>1428</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1401</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1402</v>
+        <v>1430</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>736</v>
+        <v>1431</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>737</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1403</v>
+        <v>1433</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1404</v>
+        <v>1434</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1405</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1406</v>
+        <v>1436</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1407</v>
+        <v>1437</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1408</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1406</v>
+        <v>1439</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1407</v>
+        <v>1439</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1408</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1409</v>
+        <v>1441</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1410</v>
+        <v>1442</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1411</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1412</v>
+        <v>1444</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1412</v>
+        <v>1445</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1413</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1412</v>
+        <v>1447</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1412</v>
+        <v>1448</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1413</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1414</v>
+        <v>1450</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1415</v>
+        <v>1451</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>793</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1416</v>
+        <v>1453</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1417</v>
+        <v>1454</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1418</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1419</v>
+        <v>1456</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1420</v>
+        <v>1457</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1421</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1422</v>
+        <v>1458</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1423</v>
+        <v>1459</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1424</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1425</v>
+        <v>1461</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1426</v>
+        <v>1462</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1427</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1428</v>
+        <v>1464</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1429</v>
+        <v>1465</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1430</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1431</v>
+        <v>1467</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1432</v>
+        <v>1468</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1433</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1434</v>
+        <v>1470</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1435</v>
+        <v>1471</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1436</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1437</v>
+        <v>1473</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1438</v>
+        <v>1474</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1439</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1440</v>
+        <v>1476</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1441</v>
+        <v>1477</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1442</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1443</v>
+        <v>1479</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1444</v>
+        <v>1480</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D145" s="2" t="s">
         <v>1481</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -14834,10 +14153,10 @@
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G122" activeCellId="0" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14850,1906 +14169,1851 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1552</v>
+        <v>1482</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1553</v>
+        <v>1483</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1554</v>
+        <v>1484</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1555</v>
+        <v>1485</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1556</v>
+        <v>1486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1557</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1558</v>
+        <v>1488</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1559</v>
+        <v>1489</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1560</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1561</v>
+        <v>1491</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1562</v>
+        <v>1492</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1563</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1564</v>
+        <v>1494</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1565</v>
+        <v>1495</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1566</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1567</v>
+        <v>1497</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1568</v>
+        <v>1498</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1569</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1570</v>
+        <v>1500</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1571</v>
+        <v>1501</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1572</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1573</v>
+        <v>1503</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1574</v>
+        <v>1504</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1575</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1576</v>
+        <v>1506</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1577</v>
+        <v>1507</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1578</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1579</v>
+        <v>1509</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1579</v>
+        <v>1509</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1580</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1581</v>
+        <v>1511</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1582</v>
+        <v>1512</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1583</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1584</v>
+        <v>1514</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1585</v>
+        <v>1515</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1586</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1587</v>
+        <v>1517</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1588</v>
+        <v>1518</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1589</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1590</v>
+        <v>1520</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1591</v>
+        <v>1521</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1592</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1593</v>
+        <v>1523</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1591</v>
+        <v>1521</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1594</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1595</v>
+        <v>1525</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1596</v>
+        <v>1525</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1597</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1598</v>
+        <v>1527</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1598</v>
+        <v>1528</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1599</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1600</v>
+        <v>1523</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1601</v>
+        <v>1530</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1602</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1603</v>
+        <v>1531</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1604</v>
+        <v>1532</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1605</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1593</v>
+        <v>1534</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1606</v>
+        <v>1535</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1594</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1607</v>
+        <v>1537</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1608</v>
+        <v>1535</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1609</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1610</v>
+        <v>1539</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1611</v>
+        <v>1540</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1612</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1613</v>
+        <v>1542</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1614</v>
+        <v>1543</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1615</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1616</v>
+        <v>1545</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1614</v>
+        <v>1546</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1617</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>1618</v>
+        <v>1548</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1619</v>
+        <v>1549</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1620</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>1621</v>
+        <v>1551</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1622</v>
+        <v>1552</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1623</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>1624</v>
+        <v>1554</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1625</v>
+        <v>1555</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1626</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>1627</v>
+        <v>1557</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1628</v>
+        <v>1558</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1629</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>1630</v>
+        <v>1560</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1628</v>
+        <v>1561</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1631</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>1632</v>
+        <v>1563</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1633</v>
+        <v>1564</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1634</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>1635</v>
+        <v>1566</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1636</v>
+        <v>1567</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1637</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>1638</v>
+        <v>1569</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1639</v>
+        <v>1567</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1640</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>1641</v>
+        <v>1571</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1642</v>
+        <v>1572</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1643</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>1644</v>
+        <v>1574</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1645</v>
+        <v>1575</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1646</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1647</v>
+        <v>1577</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1648</v>
+        <v>1578</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1649</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1650</v>
+        <v>1580</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1648</v>
+        <v>1581</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1651</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1652</v>
+        <v>1583</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1653</v>
+        <v>1584</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1654</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1655</v>
+        <v>1586</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1656</v>
+        <v>1587</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1657</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>1658</v>
+        <v>1589</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1659</v>
+        <v>1590</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1660</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>1661</v>
+        <v>1592</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1662</v>
+        <v>1593</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1663</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1664</v>
+        <v>1595</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1665</v>
+        <v>1596</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1666</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1667</v>
+        <v>1598</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1668</v>
+        <v>1599</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1669</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>1670</v>
+        <v>1601</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1671</v>
+        <v>1599</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1672</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>1673</v>
+        <v>1603</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1674</v>
+        <v>1604</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1675</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>1676</v>
+        <v>1606</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1677</v>
+        <v>1607</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1678</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>1679</v>
+        <v>1609</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1680</v>
+        <v>1610</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1681</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>1682</v>
+        <v>1612</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1680</v>
+        <v>1613</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1683</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>1684</v>
+        <v>1615</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1685</v>
+        <v>1616</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1686</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>1687</v>
+        <v>1618</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1688</v>
+        <v>1619</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1689</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>1690</v>
+        <v>1621</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1691</v>
+        <v>1622</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1692</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>1693</v>
+        <v>1624</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1694</v>
+        <v>1622</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1695</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>1696</v>
+        <v>1626</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1697</v>
+        <v>1622</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1698</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>1699</v>
+        <v>1628</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1700</v>
+        <v>1629</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1701</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>1702</v>
+        <v>1631</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1703</v>
+        <v>1632</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1704</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>1705</v>
+        <v>1634</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1703</v>
+        <v>1635</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1706</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>1707</v>
+        <v>1637</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1703</v>
+        <v>1638</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1708</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>1709</v>
+        <v>1640</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1710</v>
+        <v>1641</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1711</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>1712</v>
+        <v>1643</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1713</v>
+        <v>1644</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1714</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>1715</v>
+        <v>1646</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1716</v>
+        <v>1644</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1717</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>1718</v>
+        <v>1648</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1719</v>
+        <v>1649</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1720</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>1721</v>
+        <v>1651</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1722</v>
+        <v>1652</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1723</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>1724</v>
+        <v>1654</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1725</v>
+        <v>1652</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1726</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>1727</v>
+        <v>1656</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1728</v>
+        <v>1657</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1729</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>1730</v>
+        <v>1659</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1728</v>
+        <v>1660</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1731</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>1732</v>
+        <v>1662</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1733</v>
+        <v>1663</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1734</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>1735</v>
+        <v>1665</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1736</v>
+        <v>1666</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1737</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>1738</v>
+        <v>1668</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1739</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>1740</v>
+        <v>1671</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1741</v>
+        <v>1672</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1742</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>1743</v>
+        <v>1674</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1744</v>
+        <v>1675</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1745</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1746</v>
+        <v>1677</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1747</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1748</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>1749</v>
+        <v>1680</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1750</v>
+        <v>1681</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1751</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>1752</v>
+        <v>1683</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1753</v>
+        <v>1684</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1754</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1755</v>
+        <v>1654</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1756</v>
+        <v>1684</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1757</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>1758</v>
+        <v>1686</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1759</v>
+        <v>1687</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1760</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>1761</v>
+        <v>1689</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1762</v>
+        <v>1690</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1763</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>1764</v>
+        <v>1692</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1765</v>
+        <v>1693</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1766</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>1767</v>
+        <v>1654</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1768</v>
+        <v>1693</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1769</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>1738</v>
+        <v>1695</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1768</v>
+        <v>1696</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1739</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>1770</v>
+        <v>1698</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1771</v>
+        <v>1699</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1772</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>1773</v>
+        <v>1701</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1774</v>
+        <v>1702</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1775</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>1776</v>
+        <v>1704</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1777</v>
+        <v>1705</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1778</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>1738</v>
+        <v>1707</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1777</v>
+        <v>1708</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1739</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>1779</v>
+        <v>1710</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1780</v>
+        <v>1711</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1781</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>1782</v>
+        <v>1713</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1783</v>
+        <v>1714</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1784</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>1785</v>
+        <v>1716</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1786</v>
+        <v>1717</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1787</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>1788</v>
+        <v>1719</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1789</v>
+        <v>1720</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1790</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>1791</v>
+        <v>1722</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1792</v>
+        <v>1723</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1793</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>1794</v>
+        <v>1725</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1795</v>
+        <v>1726</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1796</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>1797</v>
+        <v>1640</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1798</v>
+        <v>1641</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1799</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>1800</v>
+        <v>1728</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1801</v>
+        <v>1729</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1802</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>1803</v>
+        <v>1731</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1804</v>
+        <v>1732</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1805</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>1806</v>
+        <v>1734</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1807</v>
+        <v>1735</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1808</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>1809</v>
+        <v>1737</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1810</v>
+        <v>1738</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1811</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>1724</v>
+        <v>1739</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1725</v>
+        <v>1738</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1726</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>1812</v>
+        <v>1741</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1813</v>
+        <v>1742</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1814</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>1815</v>
+        <v>1744</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1816</v>
+        <v>1745</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1817</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>1818</v>
+        <v>1747</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1819</v>
+        <v>1748</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1820</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1822</v>
+        <v>1751</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1821</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>1823</v>
+        <v>1753</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1822</v>
+        <v>1751</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1824</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>1825</v>
+        <v>1755</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1826</v>
+        <v>1756</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1827</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>1828</v>
+        <v>1758</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1829</v>
+        <v>1756</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1830</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>1831</v>
+        <v>1760</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1832</v>
+        <v>1761</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1833</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>1834</v>
+        <v>1762</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1835</v>
+        <v>1763</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1836</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>1837</v>
+        <v>1765</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1835</v>
+        <v>1763</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1838</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>1839</v>
+        <v>1767</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1840</v>
+        <v>1763</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1841</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>1842</v>
+        <v>1768</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1840</v>
+        <v>1769</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1843</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>1844</v>
+        <v>1771</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1845</v>
+        <v>1772</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1844</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>1846</v>
+        <v>1774</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1847</v>
+        <v>1775</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1848</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>1849</v>
+        <v>1777</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1847</v>
+        <v>1778</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1850</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>1851</v>
+        <v>1780</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1847</v>
+        <v>1781</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1851</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>1852</v>
+        <v>1783</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1853</v>
+        <v>1784</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1854</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>1855</v>
+        <v>1786</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1856</v>
+        <v>1787</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1857</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>1858</v>
+        <v>1789</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1859</v>
+        <v>1790</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1860</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>1861</v>
+        <v>1792</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1862</v>
+        <v>1793</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1863</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>1864</v>
+        <v>1795</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1865</v>
+        <v>1796</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1866</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>1867</v>
+        <v>1701</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1868</v>
+        <v>1702</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1869</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>1870</v>
+        <v>1798</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1871</v>
+        <v>1799</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1872</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>1873</v>
+        <v>1801</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1874</v>
+        <v>1802</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1875</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>1876</v>
+        <v>1804</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1877</v>
+        <v>1805</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1878</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>1879</v>
+        <v>1807</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1880</v>
+        <v>1808</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1881</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>1785</v>
+        <v>1810</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1786</v>
+        <v>1811</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1787</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>1882</v>
+        <v>1813</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1883</v>
+        <v>1814</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1884</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>1885</v>
+        <v>1816</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1886</v>
+        <v>1535</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1887</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>1888</v>
+        <v>1534</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1889</v>
+        <v>1535</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1890</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>1891</v>
+        <v>1818</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1892</v>
+        <v>1819</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1893</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>1894</v>
+        <v>1821</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1895</v>
+        <v>1822</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1896</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>1897</v>
+        <v>1824</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1898</v>
+        <v>1825</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1899</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>1900</v>
+        <v>1827</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1614</v>
+        <v>1828</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1901</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>1613</v>
+        <v>1830</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1614</v>
+        <v>1831</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1615</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>1902</v>
+        <v>1833</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1903</v>
+        <v>1831</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1904</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>1905</v>
+        <v>1835</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1906</v>
+        <v>1836</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1907</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>1908</v>
+        <v>1837</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1909</v>
+        <v>1838</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1910</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>1911</v>
+        <v>1840</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1912</v>
+        <v>1838</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1913</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>1914</v>
+        <v>1842</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1915</v>
+        <v>1843</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1916</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>1917</v>
+        <v>1844</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1915</v>
+        <v>1843</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1918</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>1919</v>
+        <v>1846</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1920</v>
+        <v>1847</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1919</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>1921</v>
+        <v>1849</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1922</v>
+        <v>1850</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1923</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>1924</v>
+        <v>1852</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1922</v>
+        <v>1853</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1925</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>1926</v>
+        <v>1855</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1927</v>
+        <v>1856</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1926</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>1928</v>
+        <v>1858</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1927</v>
+        <v>1859</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1929</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>1930</v>
+        <v>1861</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1931</v>
+        <v>1862</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1932</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>1933</v>
+        <v>1864</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1934</v>
+        <v>1865</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1935</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>1936</v>
+        <v>1867</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1937</v>
+        <v>1868</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1938</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>1939</v>
+        <v>1870</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1940</v>
+        <v>1871</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1941</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>1942</v>
+        <v>1873</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1943</v>
+        <v>1874</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1944</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>1945</v>
+        <v>1876</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1946</v>
+        <v>1877</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1947</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>1948</v>
+        <v>1879</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1949</v>
+        <v>1880</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1950</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>1951</v>
+        <v>1882</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1952</v>
+        <v>1883</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1953</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>1954</v>
+        <v>1885</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1955</v>
+        <v>1886</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1956</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>1957</v>
+        <v>1509</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1958</v>
+        <v>1888</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1959</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>1960</v>
+        <v>1511</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1961</v>
+        <v>1512</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1962</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>1963</v>
+        <v>1889</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1964</v>
+        <v>1890</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1965</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>1966</v>
+        <v>1892</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1967</v>
+        <v>1893</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1968</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>1969</v>
+        <v>1895</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1970</v>
+        <v>1896</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1971</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>1579</v>
+        <v>1898</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1972</v>
+        <v>1899</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1580</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>1581</v>
+        <v>1901</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1582</v>
+        <v>1902</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1583</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>1973</v>
+        <v>1904</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1974</v>
+        <v>1905</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1975</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>1976</v>
+        <v>1907</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1977</v>
+        <v>1908</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1978</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>1979</v>
+        <v>1910</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1980</v>
+        <v>1911</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1981</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>1982</v>
+        <v>1912</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1983</v>
+        <v>1913</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1984</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>1985</v>
+        <v>1915</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1986</v>
+        <v>1856</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1987</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>1988</v>
+        <v>1917</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1989</v>
+        <v>1918</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1990</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>1991</v>
+        <v>1920</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1992</v>
+        <v>1921</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1993</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>1994</v>
+        <v>1923</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1995</v>
+        <v>1921</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1994</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>1996</v>
+        <v>1925</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1997</v>
+        <v>1926</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1998</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>1999</v>
+        <v>1928</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1940</v>
+        <v>1929</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>2000</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>2001</v>
+        <v>1931</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2002</v>
+        <v>1932</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>2003</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>2004</v>
+        <v>1934</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2005</v>
+        <v>1935</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>2009</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>2012</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>2019</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>2020</v>
+        <v>1936</v>
       </c>
     </row>
   </sheetData>
@@ -16785,55 +16049,55 @@
         <v>812</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2021</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2022</v>
+        <v>1938</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2023</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2024</v>
+        <v>1940</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2025</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>2026</v>
+        <v>1942</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2027</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>2028</v>
+        <v>1944</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2029</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>2030</v>
+        <v>1946</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2031</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>2032</v>
+        <v>1948</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2033</v>
+        <v>1949</v>
       </c>
     </row>
   </sheetData>
@@ -16855,8 +16119,8 @@
   </sheetPr>
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H93" activeCellId="0" sqref="H93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N72" activeCellId="0" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16868,1300 +16132,1300 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>2034</v>
+        <v>1950</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2035</v>
+        <v>1951</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2036</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2037</v>
+        <v>1953</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2038</v>
+        <v>1954</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2039</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2040</v>
+        <v>1956</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2041</v>
+        <v>1957</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2042</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>2043</v>
+        <v>1959</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2044</v>
+        <v>1960</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2045</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>2046</v>
+        <v>1962</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2047</v>
+        <v>1963</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2046</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>2048</v>
+        <v>1964</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2049</v>
+        <v>1965</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2050</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>2051</v>
+        <v>1967</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2052</v>
+        <v>1968</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2053</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>2054</v>
+        <v>1970</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2055</v>
+        <v>1971</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>2056</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>2057</v>
+        <v>1973</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2058</v>
+        <v>1974</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2059</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>2060</v>
+        <v>1976</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2061</v>
+        <v>1977</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>2062</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>2063</v>
+        <v>1979</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2064</v>
+        <v>1980</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>2063</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>2065</v>
+        <v>1981</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2066</v>
+        <v>1982</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>2067</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>2068</v>
+        <v>1984</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2069</v>
+        <v>1985</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2070</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>2071</v>
+        <v>1987</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2072</v>
+        <v>1988</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2073</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>2074</v>
+        <v>1990</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2075</v>
+        <v>1991</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2076</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>2077</v>
+        <v>1993</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2078</v>
+        <v>1994</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>2079</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>2080</v>
+        <v>1996</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2078</v>
+        <v>1994</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>2081</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>2082</v>
+        <v>1998</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2083</v>
+        <v>1999</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2084</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>2085</v>
+        <v>2001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2086</v>
+        <v>2002</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>2087</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>2088</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2089</v>
+        <v>2005</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2090</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>2091</v>
+        <v>2007</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2092</v>
+        <v>2008</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2093</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>2094</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2095</v>
+        <v>2011</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2096</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>2048</v>
+        <v>1964</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2049</v>
+        <v>1965</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2050</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>2097</v>
+        <v>2013</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2098</v>
+        <v>2014</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2099</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>2100</v>
+        <v>2016</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2101</v>
+        <v>2017</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2102</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>2103</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2104</v>
+        <v>2020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2105</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>2106</v>
+        <v>2022</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2107</v>
+        <v>2023</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2108</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>2109</v>
+        <v>2025</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2110</v>
+        <v>2026</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2111</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>2112</v>
+        <v>2028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2113</v>
+        <v>2029</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2114</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>2115</v>
+        <v>2031</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2116</v>
+        <v>2032</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2117</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>2118</v>
+        <v>2034</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2119</v>
+        <v>2035</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2120</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>2121</v>
+        <v>2037</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2122</v>
+        <v>2038</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2123</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>2124</v>
+        <v>2040</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2122</v>
+        <v>2038</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2125</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>2126</v>
+        <v>2042</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2127</v>
+        <v>2043</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2128</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>2129</v>
+        <v>2045</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2130</v>
+        <v>2046</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2131</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>2132</v>
+        <v>2048</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2133</v>
+        <v>2049</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2134</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>2135</v>
+        <v>2051</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2135</v>
+        <v>2051</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2136</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>2137</v>
+        <v>2053</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2135</v>
+        <v>2051</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2138</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>2139</v>
+        <v>2055</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2140</v>
+        <v>2056</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2141</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>2142</v>
+        <v>2058</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2143</v>
+        <v>2059</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2142</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>2144</v>
+        <v>2060</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2145</v>
+        <v>2061</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2146</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>2147</v>
+        <v>2063</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2148</v>
+        <v>2064</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2149</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>2150</v>
+        <v>2066</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2151</v>
+        <v>2067</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2152</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>2153</v>
+        <v>2069</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2154</v>
+        <v>2070</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2155</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>2156</v>
+        <v>2072</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2157</v>
+        <v>2073</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2158</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>2159</v>
+        <v>2075</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2160</v>
+        <v>2076</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2161</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>2162</v>
+        <v>2078</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2163</v>
+        <v>2079</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2164</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>2165</v>
+        <v>2081</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2166</v>
+        <v>2082</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2167</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>2168</v>
+        <v>2084</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2168</v>
+        <v>2084</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2169</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>2170</v>
+        <v>2086</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2170</v>
+        <v>2086</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2171</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>2172</v>
+        <v>2088</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2173</v>
+        <v>2089</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2174</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>2175</v>
+        <v>2091</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2176</v>
+        <v>2092</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2177</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>2178</v>
+        <v>2094</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2179</v>
+        <v>2095</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2180</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>2181</v>
+        <v>2097</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2182</v>
+        <v>2098</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2183</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>2184</v>
+        <v>2100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2185</v>
+        <v>2101</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2186</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>2187</v>
+        <v>2103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2188</v>
+        <v>2104</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2189</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>2190</v>
+        <v>2106</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2191</v>
+        <v>2107</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2192</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>2193</v>
+        <v>2109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2191</v>
+        <v>2107</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2194</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>2195</v>
+        <v>2111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2191</v>
+        <v>2107</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2196</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>2197</v>
+        <v>2113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2198</v>
+        <v>2114</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2199</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>2200</v>
+        <v>2116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2198</v>
+        <v>2114</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2201</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>2202</v>
+        <v>2118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2198</v>
+        <v>2114</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2203</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>2204</v>
+        <v>2120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2205</v>
+        <v>2121</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2206</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>2207</v>
+        <v>2123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2208</v>
+        <v>2124</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2209</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>2210</v>
+        <v>2126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2211</v>
+        <v>2127</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2212</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>2213</v>
+        <v>2129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2214</v>
+        <v>2130</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2215</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>2216</v>
+        <v>2132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2217</v>
+        <v>2133</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2218</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>2219</v>
+        <v>2135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2220</v>
+        <v>2136</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2221</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>2222</v>
+        <v>2138</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2220</v>
+        <v>2136</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2223</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>2224</v>
+        <v>2140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2225</v>
+        <v>2141</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2226</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>2227</v>
+        <v>2143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2228</v>
+        <v>2144</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2229</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>2230</v>
+        <v>2146</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2228</v>
+        <v>2144</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2231</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>2232</v>
+        <v>2148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2233</v>
+        <v>2149</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2234</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>2235</v>
+        <v>2151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2233</v>
+        <v>2149</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2236</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>2237</v>
+        <v>2153</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2238</v>
+        <v>2154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>2239</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>2240</v>
+        <v>2156</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2241</v>
+        <v>2157</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>2242</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>2243</v>
+        <v>2159</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2244</v>
+        <v>2160</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>2245</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>2246</v>
+        <v>2162</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2244</v>
+        <v>2160</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>2247</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>2248</v>
+        <v>2164</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2249</v>
+        <v>2165</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>2250</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>2251</v>
+        <v>2167</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2252</v>
+        <v>2168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>2253</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>2254</v>
+        <v>2170</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2255</v>
+        <v>2171</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>2256</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>2257</v>
+        <v>2173</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2258</v>
+        <v>2174</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>2259</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>2260</v>
+        <v>2176</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2261</v>
+        <v>2177</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>2262</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>2263</v>
+        <v>2179</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2264</v>
+        <v>2180</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>2265</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>2266</v>
+        <v>2182</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2267</v>
+        <v>2183</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>2268</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>2269</v>
+        <v>2185</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2270</v>
+        <v>2186</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>2271</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>2272</v>
+        <v>2188</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2273</v>
+        <v>2189</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>2274</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>2275</v>
+        <v>2191</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2276</v>
+        <v>2192</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>2277</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>2278</v>
+        <v>2194</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2276</v>
+        <v>2192</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>2279</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>2280</v>
+        <v>2196</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2281</v>
+        <v>2197</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2282</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>2283</v>
+        <v>2199</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2284</v>
+        <v>2200</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>2285</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>2286</v>
+        <v>2202</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2287</v>
+        <v>2203</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>2288</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>2289</v>
+        <v>2205</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2290</v>
+        <v>2206</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>2291</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>2292</v>
+        <v>2208</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2293</v>
+        <v>2209</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>2294</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>2295</v>
+        <v>2211</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2293</v>
+        <v>2209</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>2296</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>2297</v>
+        <v>2213</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2298</v>
+        <v>2214</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>2299</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>2300</v>
+        <v>2216</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2301</v>
+        <v>2217</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>2302</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>2303</v>
+        <v>2219</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2304</v>
+        <v>2220</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>2305</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>2306</v>
+        <v>2222</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2304</v>
+        <v>2220</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>2307</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>2308</v>
+        <v>2224</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2309</v>
+        <v>2225</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>2310</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>2311</v>
+        <v>2227</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2312</v>
+        <v>2228</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>2313</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>2314</v>
+        <v>2230</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2315</v>
+        <v>2231</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>2316</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>2317</v>
+        <v>2233</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2318</v>
+        <v>2234</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>2319</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>2320</v>
+        <v>2236</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2321</v>
+        <v>2237</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>2322</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>2323</v>
+        <v>2239</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2324</v>
+        <v>2240</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>2325</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>2326</v>
+        <v>2242</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2324</v>
+        <v>2240</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>2327</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>2328</v>
+        <v>2244</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2329</v>
+        <v>2245</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>2330</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>2331</v>
+        <v>2247</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2332</v>
+        <v>2248</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>2333</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>2334</v>
+        <v>2250</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2334</v>
+        <v>2250</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>2335</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>2336</v>
+        <v>2252</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>2334</v>
+        <v>2250</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>2337</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>2338</v>
+        <v>2254</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2339</v>
+        <v>2255</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>2340</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>2341</v>
+        <v>2257</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>2342</v>
+        <v>2258</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>2343</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>2344</v>
+        <v>2260</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2345</v>
+        <v>2261</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>2346</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>2347</v>
+        <v>2263</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2345</v>
+        <v>2261</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>2348</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>2349</v>
+        <v>2265</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2350</v>
+        <v>2266</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>2351</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>2352</v>
+        <v>2268</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2353</v>
+        <v>2269</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>2354</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>2355</v>
+        <v>2271</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2353</v>
+        <v>2269</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>2356</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>2357</v>
+        <v>2273</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2358</v>
+        <v>2274</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>2359</v>
+        <v>2275</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/1 Vocabulary.xlsx
+++ b/src/main/resources/excel/1 Vocabulary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="874">
   <si>
     <t xml:space="preserve">First</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">ˈsɛkənd</t>
   </si>
   <si>
+    <t xml:space="preserve">EXAMPLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third</t>
   </si>
   <si>
@@ -842,9 +845,6 @@
   </si>
   <si>
     <t xml:space="preserve">əˈkaʊntənt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
     <t xml:space="preserve">actor</t>
@@ -2921,7 +2921,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2939,10 +2939,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3151,10 +3147,10 @@
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3185,401 +3181,506 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3612,10 +3713,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I1" s="3" t="b">
         <f aca="false">FALSE()</f>
@@ -3624,50 +3725,50 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3687,10 +3788,10 @@
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3700,321 +3801,402 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4034,215 +4216,268 @@
     <tabColor rgb="FFEEEEEE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4277,16 +4512,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4300,7 +4535,7 @@
         <v>274</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4549,7 @@
         <v>277</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +4563,7 @@
         <v>280</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,7 +4577,7 @@
         <v>283</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,7 +4591,7 @@
         <v>286</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,7 +4605,7 @@
         <v>288</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4619,7 @@
         <v>291</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,7 +4633,7 @@
         <v>294</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,7 +4647,7 @@
         <v>297</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,7 +4661,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,7 +4675,7 @@
         <v>303</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4689,7 @@
         <v>306</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,7 +4703,7 @@
         <v>309</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,7 +4717,7 @@
         <v>312</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4731,7 @@
         <v>315</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4745,7 @@
         <v>318</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,7 +4759,7 @@
         <v>321</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,7 +4773,7 @@
         <v>324</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4798,7 @@
         <v>330</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4812,7 @@
         <v>333</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +4826,7 @@
         <v>336</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,7 +4840,7 @@
         <v>339</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4854,7 @@
         <v>342</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,7 +4868,7 @@
         <v>345</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4882,7 @@
         <v>348</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4661,7 +4896,7 @@
         <v>351</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,7 +4910,7 @@
         <v>354</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,7 +4924,7 @@
         <v>357</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,7 +4938,7 @@
         <v>360</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +4952,7 @@
         <v>362</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4966,7 @@
         <v>365</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,7 +4980,7 @@
         <v>368</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,7 +4994,7 @@
         <v>371</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,7 +5008,7 @@
         <v>374</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +5022,7 @@
         <v>376</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4801,7 +5036,7 @@
         <v>379</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +5050,7 @@
         <v>382</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +5075,7 @@
         <v>388</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,7 +5089,7 @@
         <v>391</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,7 +5103,7 @@
         <v>394</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4882,7 +5117,7 @@
         <v>397</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +5131,7 @@
         <v>400</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,7 +5145,7 @@
         <v>403</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,7 +5159,7 @@
         <v>406</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,7 +5173,7 @@
         <v>409</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +5187,7 @@
         <v>411</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,7 +5201,7 @@
         <v>414</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +5215,7 @@
         <v>417</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,7 +5229,7 @@
         <v>420</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +5243,7 @@
         <v>423</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,7 +5257,7 @@
         <v>426</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5271,7 @@
         <v>429</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5285,7 @@
         <v>432</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5299,7 @@
         <v>435</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,7 +5313,7 @@
         <v>438</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5327,7 @@
         <v>440</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5352,7 @@
         <v>446</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5366,7 @@
         <v>449</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5145,7 +5380,7 @@
         <v>452</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,7 +5394,7 @@
         <v>455</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5408,7 @@
         <v>458</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,7 +5422,7 @@
         <v>461</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,7 +5436,7 @@
         <v>464</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,7 +5450,7 @@
         <v>467</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +5464,7 @@
         <v>470</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,7 +5478,7 @@
         <v>473</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5492,7 @@
         <v>476</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,7 +5506,7 @@
         <v>479</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,7 +5520,7 @@
         <v>482</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +5534,7 @@
         <v>485</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,7 +5548,7 @@
         <v>488</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,7 +5562,7 @@
         <v>491</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5576,7 @@
         <v>494</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,7 +5590,7 @@
         <v>497</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,7 +5604,7 @@
         <v>500</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5394,7 +5629,7 @@
         <v>506</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5643,7 @@
         <v>508</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5657,7 @@
         <v>511</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,7 +5671,7 @@
         <v>514</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,7 +5685,7 @@
         <v>517</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5699,7 @@
         <v>520</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5478,7 +5713,7 @@
         <v>522</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,7 +5727,7 @@
         <v>525</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,7 +5741,7 @@
         <v>528</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5755,7 @@
         <v>529</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,7 +5769,7 @@
         <v>533</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5791,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5571,9 +5806,7 @@
       <c r="D1" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>272</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -5585,8 +5818,8 @@
       <c r="D2" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>272</v>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5599,8 +5832,8 @@
       <c r="D3" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>272</v>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,8 +5846,8 @@
       <c r="D4" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>272</v>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,8 +5860,8 @@
       <c r="D5" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>272</v>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,8 +5874,8 @@
       <c r="D6" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>272</v>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,8 +5888,8 @@
       <c r="D7" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>272</v>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,8 +5902,8 @@
       <c r="D8" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>272</v>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,8 +5916,8 @@
       <c r="D9" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>272</v>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,8 +5930,8 @@
       <c r="D10" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>272</v>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,8 +5944,8 @@
       <c r="D11" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>272</v>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,8 +5958,8 @@
       <c r="D12" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>272</v>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,8 +5972,8 @@
       <c r="D13" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>272</v>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,8 +5986,8 @@
       <c r="D14" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>272</v>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,8 +6000,8 @@
       <c r="D15" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>272</v>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,8 +6014,8 @@
       <c r="D16" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>272</v>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,8 +6028,8 @@
       <c r="D17" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>272</v>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5809,8 +6042,8 @@
       <c r="D18" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>272</v>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,8 +6056,8 @@
       <c r="D19" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>272</v>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,8 +6081,8 @@
       <c r="D21" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>272</v>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,8 +6095,8 @@
       <c r="D22" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>272</v>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,8 +6109,8 @@
       <c r="D23" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>272</v>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,8 +6123,8 @@
       <c r="D24" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>272</v>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,8 +6137,8 @@
       <c r="D25" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>272</v>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,8 +6151,8 @@
       <c r="D26" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>272</v>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5932,8 +6165,8 @@
       <c r="D27" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>272</v>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,8 +6179,8 @@
       <c r="D28" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>272</v>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,8 +6193,8 @@
       <c r="D29" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>272</v>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,8 +6207,8 @@
       <c r="D30" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>272</v>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,8 +6221,8 @@
       <c r="D31" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>272</v>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6002,8 +6235,8 @@
       <c r="D32" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>272</v>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,8 +6249,8 @@
       <c r="D33" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>272</v>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,8 +6263,8 @@
       <c r="D34" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>272</v>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,8 +6277,8 @@
       <c r="D35" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>272</v>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,8 +6291,8 @@
       <c r="D36" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>272</v>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,8 +6305,8 @@
       <c r="D37" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>272</v>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,8 +6319,8 @@
       <c r="D38" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>272</v>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,8 +6333,8 @@
       <c r="D39" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>272</v>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,8 +6358,8 @@
       <c r="D41" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>272</v>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,8 +6372,8 @@
       <c r="D42" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>272</v>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,8 +6386,8 @@
       <c r="D43" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>272</v>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,8 +6400,8 @@
       <c r="D44" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>272</v>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,8 +6414,8 @@
       <c r="D45" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>272</v>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,8 +6428,8 @@
       <c r="D46" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>272</v>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,11 +6442,11 @@
       <c r="D47" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>673</v>
       </c>
@@ -6223,8 +6456,8 @@
       <c r="D48" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>272</v>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,8 +6470,8 @@
       <c r="D49" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>272</v>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,8 +6484,8 @@
       <c r="D50" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>272</v>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6265,8 +6498,8 @@
       <c r="D51" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>272</v>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,8 +6512,8 @@
       <c r="D52" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>272</v>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6301,8 +6534,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F81" activeCellId="0" sqref="F81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6317,9 +6550,7 @@
       <c r="D1" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>272</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -6331,8 +6562,8 @@
       <c r="D2" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>272</v>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,8 +6576,8 @@
       <c r="D3" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>272</v>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,8 +6590,8 @@
       <c r="D4" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>272</v>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,8 +6604,8 @@
       <c r="D5" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>272</v>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,8 +6618,8 @@
       <c r="D6" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>272</v>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,8 +6632,8 @@
       <c r="D7" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>272</v>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,8 +6646,8 @@
       <c r="D8" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>272</v>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,8 +6660,8 @@
       <c r="D9" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>272</v>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,8 +6674,8 @@
       <c r="D10" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>272</v>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,8 +6688,8 @@
       <c r="D11" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>272</v>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,8 +6702,8 @@
       <c r="D12" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>272</v>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,8 +6716,8 @@
       <c r="D13" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>272</v>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,8 +6730,8 @@
       <c r="D14" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>272</v>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,11 +6744,11 @@
       <c r="D15" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="46.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>733</v>
       </c>
@@ -6527,8 +6758,8 @@
       <c r="D16" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>272</v>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,8 +6772,8 @@
       <c r="D17" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>272</v>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,8 +6786,8 @@
       <c r="D18" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>272</v>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,8 +6800,8 @@
       <c r="D19" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>272</v>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,8 +6825,8 @@
       <c r="D21" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>272</v>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6608,8 +6839,8 @@
       <c r="D22" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>272</v>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6622,8 +6853,8 @@
       <c r="D23" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>272</v>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6636,8 +6867,8 @@
       <c r="D24" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>272</v>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6650,8 +6881,8 @@
       <c r="D25" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>272</v>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,8 +6895,8 @@
       <c r="D26" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>272</v>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,8 +6909,8 @@
       <c r="D27" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>272</v>
+      <c r="F27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,8 +6923,8 @@
       <c r="D28" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>272</v>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,8 +6937,8 @@
       <c r="D29" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>272</v>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,8 +6951,8 @@
       <c r="D30" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>272</v>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6734,8 +6965,8 @@
       <c r="D31" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>272</v>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6748,8 +6979,8 @@
       <c r="D32" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>272</v>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,8 +6993,8 @@
       <c r="D33" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>272</v>
+      <c r="F33" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6776,8 +7007,8 @@
       <c r="D34" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>272</v>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,8 +7021,8 @@
       <c r="D35" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>272</v>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,8 +7035,8 @@
       <c r="D36" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>272</v>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,8 +7049,8 @@
       <c r="D37" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>272</v>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6832,8 +7063,8 @@
       <c r="D38" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>272</v>
+      <c r="F38" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6846,8 +7077,8 @@
       <c r="D39" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>272</v>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,8 +7102,8 @@
       <c r="D41" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>272</v>
+      <c r="F41" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,8 +7116,8 @@
       <c r="D42" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>272</v>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,8 +7130,8 @@
       <c r="D43" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>272</v>
+      <c r="F43" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6913,8 +7144,8 @@
       <c r="D44" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>272</v>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,8 +7158,8 @@
       <c r="D45" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>272</v>
+      <c r="F45" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6941,8 +7172,8 @@
       <c r="D46" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>272</v>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,8 +7186,8 @@
       <c r="D47" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>272</v>
+      <c r="F47" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,8 +7200,8 @@
       <c r="D48" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>272</v>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6983,8 +7214,8 @@
       <c r="D49" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>272</v>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6997,8 +7228,8 @@
       <c r="D50" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>272</v>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,8 +7242,8 @@
       <c r="D51" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>272</v>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,8 +7256,8 @@
       <c r="D52" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>272</v>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,177 +7270,177 @@
       <c r="D53" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>272</v>
+      <c r="F53" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>215</v>
+      <c r="A54" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>841</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>272</v>
+        <v>218</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>218</v>
+      <c r="A55" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>842</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>272</v>
+        <v>221</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>221</v>
+      <c r="A56" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>843</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>272</v>
+        <v>224</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>224</v>
+      <c r="A57" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>844</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>272</v>
+        <v>227</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>227</v>
+      <c r="A58" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>272</v>
+        <v>230</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>230</v>
+      <c r="A59" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>846</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>272</v>
+        <v>233</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>233</v>
+      <c r="A60" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>847</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>236</v>
+      <c r="A61" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>848</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>272</v>
+        <v>239</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>239</v>
+      <c r="A62" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>849</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>272</v>
+        <v>242</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>242</v>
+      <c r="A63" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>272</v>
+        <v>245</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>245</v>
+      <c r="A64" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>851</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>272</v>
+        <v>248</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>248</v>
+      <c r="A65" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>852</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>853</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -7218,12 +7449,12 @@
       <c r="D66" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>272</v>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>856</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -7232,12 +7463,12 @@
       <c r="D67" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>272</v>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>859</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -7246,12 +7477,12 @@
       <c r="D68" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>272</v>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>862</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -7260,12 +7491,12 @@
       <c r="D69" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>272</v>
+      <c r="F69" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>865</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -7274,12 +7505,12 @@
       <c r="D70" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>272</v>
+      <c r="F70" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>868</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -7288,12 +7519,12 @@
       <c r="D71" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>272</v>
+      <c r="F71" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>871</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -7302,8 +7533,8 @@
       <c r="D72" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>272</v>
+      <c r="F72" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
